--- a/BCRPP_QC_R_Excel_Program/Incident Cases Rules/BCRPP Incident Cases Correction Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Incident Cases Rules/BCRPP Incident Cases Correction Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED79F9-8BD0-9546-AD3C-8D0C899358C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F10BF0-EDE9-0F4F-8DDD-7A96E1165B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>variable</t>
   </si>
@@ -125,13 +125,28 @@
   </si>
   <si>
     <t>sizecat_primary2 changed to 3 (size_primary2 is greater than 5 cm)</t>
+  </si>
+  <si>
+    <t>dxdate_primary1</t>
+  </si>
+  <si>
+    <t>valid.changes</t>
+  </si>
+  <si>
+    <t>dxdate_primary1 changed to 7777 from 777 to match data dictionary</t>
+  </si>
+  <si>
+    <t>dxdate_primary2</t>
+  </si>
+  <si>
+    <t>dxdate_primary2 changed to 7777 from 777 to match data dictionary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +165,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,7 +706,42 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>7777</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>777</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>7777</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
